--- a/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_신라_연도별모음_문제.xlsx
+++ b/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_신라_연도별모음_문제.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,14 +549,40 @@
           <t>ㄱㄴㄹㄷ</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20221205</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14</t>
+      <c r="D5" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ㄱ. 신라 분황사 창건 및 모전석탑 건립 
+ㄴ. 신라 품주를 집사부 창부로 분리 
+ㄷ. 신라 김유신을 중심으로 향도 조직 
+ㄹ. 신라 조부 설치</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ㄷㄹㄴㄱ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ㄹㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20221206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>00</t>
         </is>
       </c>
     </row>

--- a/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_신라_연도별모음_문제.xlsx
+++ b/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_신라_연도별모음_문제.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,14 +549,39 @@
           <t>ㄱㄴㄹㄷ</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20221205</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14</t>
+      <c r="D5" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ㄱ. 신라 임신서기석 건립 
+ㄴ. 신라 분황사 창건 및 모전석탑 건립 
+ㄷ. 신라 예부 설치</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20221206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>08</t>
         </is>
       </c>
     </row>

--- a/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_신라_연도별모음_문제.xlsx
+++ b/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_신라_연도별모음_문제.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,12 +574,162 @@
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ㄱ. 신라 임신서기석 건립 
+ㄴ. 신라 분황사 창건 및 모전석탑 건립 
+ㄷ. 신라 예부 설치</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ㄱ. 신라 나당 동맹 체결 
+ㄴ. 신라 사로국을 신라로 개칭 
+ㄷ. 대가야 신라의 결혼 동맹</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ㄱ. 신라 당나라와 매소성 전투 
+ㄴ. 신라 당나라와 마전 적성 전투 
+ㄷ. 신라 당나라에 태평송 전함</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ㄱ. 신라 당나라에 태평송 전함 
+ㄴ. 고구려의 묵호자 신라에 불교 전래 
+ㄷ. 신라 좌이방부 설치</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ㄱ. 신라 울진 봉평 신라비 건립 
+ㄴ. 금관가야 정복 
+ㄷ. 신라 이사부 실직주 군주로 파견</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ㄱ. 신라 병부 설치 
+ㄴ. 신라 황초령비 건립 
+ㄷ. 신라 상복법 제정</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>20221206</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>08</t>
         </is>
